--- a/public/EpreuveE5.xlsx
+++ b/public/EpreuveE5.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nonom\Downloads\STAGE\STAGE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nextJSProjet\portfolio\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A426F3-245F-48C8-A2D2-BAD97E43242B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B548A4-2C0A-4440-AFD7-FD9E9F61EAD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,9 +62,6 @@
     <t>▢ SLAM</t>
   </si>
   <si>
-    <t>Adresse URL du portfolio :</t>
-  </si>
-  <si>
     <t>Compétences mises en œuvre
 Réalisations professionnelles
 (intitulé et liste des documents et productions associés)</t>
@@ -198,6 +195,9 @@
   </si>
   <si>
     <t>Centre de formation : IPSSI Marne-la-vallée</t>
+  </si>
+  <si>
+    <t>Adresse URL du portfolio :https://gitlab.com/NolhanMM/portfolio</t>
   </si>
 </sst>
 </file>
@@ -731,15 +731,51 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -772,42 +808,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -842,8 +842,8 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>397131</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="4" name="Encre 3">
@@ -862,7 +862,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="4" name="Encre 3">
@@ -907,8 +907,8 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>397131</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="6" name="Encre 5">
@@ -927,7 +927,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="6" name="Encre 5">
@@ -1308,8 +1308,8 @@
   </sheetPr>
   <dimension ref="A1:AQ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:H5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1322,56 +1322,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="23"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
     </row>
     <row r="3" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="41" t="s">
+      <c r="A3" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="36"/>
-      <c r="H3" s="42"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="33"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="40"/>
+      <c r="A4" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="31"/>
       <c r="F4" s="12" t="s">
         <v>4</v>
       </c>
@@ -1383,63 +1383,63 @@
       </c>
     </row>
     <row r="5" spans="1:43" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="46"/>
+    </row>
+    <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="34"/>
-    </row>
-    <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+      <c r="B6" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="C6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="F6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="G6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="H6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="7" t="s">
+    </row>
+    <row r="7" spans="1:43" s="2" customFormat="1" ht="324.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="35"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="19" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:43" s="2" customFormat="1" ht="324.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="19" t="s">
+      <c r="D7" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="E7" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="F7" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="G7" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="H7" s="20" t="s">
         <v>20</v>
-      </c>
-      <c r="H7" s="20" t="s">
-        <v>21</v>
       </c>
       <c r="I7"/>
       <c r="J7"/>
@@ -1478,16 +1478,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="26"/>
+      <c r="A8" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="38"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1526,23 +1526,23 @@
     </row>
     <row r="9" spans="1:43" s="2" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" s="45"/>
+        <v>24</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="23"/>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9"/>
@@ -1581,19 +1581,19 @@
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="44"/>
-      <c r="H10" s="45"/>
+        <v>25</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="22"/>
+      <c r="H10" s="23"/>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
@@ -1632,21 +1632,21 @@
     </row>
     <row r="11" spans="1:43" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" s="44"/>
-      <c r="H11" s="45"/>
+        <v>26</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="22"/>
+      <c r="H11" s="23"/>
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11"/>
@@ -1685,18 +1685,18 @@
     </row>
     <row r="12" spans="1:43" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="45" t="s">
-        <v>37</v>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="23" t="s">
+        <v>36</v>
       </c>
       <c r="I12"/>
       <c r="J12"/>
@@ -1736,18 +1736,18 @@
     </row>
     <row r="13" spans="1:43" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="24" t="s">
         <v>40</v>
-      </c>
-      <c r="B13" s="46" t="s">
-        <v>41</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
-      <c r="H13" s="45" t="s">
-        <v>37</v>
+      <c r="H13" s="23" t="s">
+        <v>36</v>
       </c>
       <c r="I13"/>
       <c r="J13"/>
@@ -2011,16 +2011,16 @@
       <c r="AQ18"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="29"/>
+      <c r="A19" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="41"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -2059,20 +2059,20 @@
     </row>
     <row r="20" spans="1:43" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="43" t="s">
-        <v>36</v>
+        <v>27</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>35</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
-      <c r="F20" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44" t="s">
-        <v>37</v>
+      <c r="F20" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="I20"/>
       <c r="J20"/>
@@ -2112,21 +2112,21 @@
     </row>
     <row r="21" spans="1:43" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="43" t="s">
-        <v>35</v>
+        <v>32</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>34</v>
       </c>
       <c r="C21" s="14"/>
-      <c r="D21" s="44" t="s">
-        <v>37</v>
+      <c r="D21" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="E21" s="14"/>
-      <c r="F21" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="G21" s="44" t="s">
-        <v>37</v>
+      <c r="F21" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="H21" s="15"/>
       <c r="I21"/>
@@ -2167,21 +2167,21 @@
     </row>
     <row r="22" spans="1:43" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="43" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>33</v>
       </c>
       <c r="C22" s="14"/>
-      <c r="D22" s="44" t="s">
-        <v>37</v>
+      <c r="D22" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="E22" s="14"/>
-      <c r="F22" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="G22" s="44" t="s">
-        <v>37</v>
+      <c r="F22" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="H22" s="15"/>
       <c r="I22"/>
@@ -2401,16 +2401,16 @@
       <c r="AQ26"/>
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="29"/>
+      <c r="A27" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="41"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2855,11 +2855,6 @@
     <row r="81" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
@@ -2867,6 +2862,11 @@
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A5:H5"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -2887,17 +2887,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="b96438d6-4088-444b-a148-08e2a0c42289" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9afeb195-fe8e-4d53-b966-ac86e014f9d0">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C0540109B649AC4795630F51507852BE" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cf048a6d6fb8ba83b9c5cef3d725a4c7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9afeb195-fe8e-4d53-b966-ac86e014f9d0" xmlns:ns3="b96438d6-4088-444b-a148-08e2a0c42289" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2192bdb00a2bee568ac6fc3179bc9a06" ns2:_="" ns3:_="">
     <xsd:import namespace="9afeb195-fe8e-4d53-b966-ac86e014f9d0"/>
@@ -3098,6 +3087,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="b96438d6-4088-444b-a148-08e2a0c42289" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9afeb195-fe8e-4d53-b966-ac86e014f9d0">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E5CC2F8-6A3D-4E00-BE87-ABD27B2DABA8}">
   <ds:schemaRefs>
@@ -3107,17 +3107,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{092602E4-9251-40C3-8AA3-A273484EC6BA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b96438d6-4088-444b-a148-08e2a0c42289"/>
-    <ds:schemaRef ds:uri="9afeb195-fe8e-4d53-b966-ac86e014f9d0"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D953FC03-F809-41C3-A370-E13F024E057E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3134,4 +3123,15 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{092602E4-9251-40C3-8AA3-A273484EC6BA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b96438d6-4088-444b-a148-08e2a0c42289"/>
+    <ds:schemaRef ds:uri="9afeb195-fe8e-4d53-b966-ac86e014f9d0"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>